--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.012120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.012120.xlsx_with_dialog_acts.xlsx
@@ -1505,12 +1505,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2691,12 +2691,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3913,12 +3913,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4407,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4597,12 +4597,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4711,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4939,12 +4939,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5129,12 +5129,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5817,12 +5817,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6467,12 +6467,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6543,12 +6543,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6775,12 +6775,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
